--- a/outcome/appendix/Table S1.xlsx
+++ b/outcome/appendix/Table S1.xlsx
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>12729.9</v>
+        <v>4890.44</v>
       </c>
       <c r="E2" t="n">
-        <v>0.596</v>
+        <v>0.3617</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>-2472.5</v>
+        <v>-2467.42</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1504</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="5">
@@ -533,10 +533,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>5385.46</v>
+        <v>15132.85</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9635</v>
+        <v>0.9867</v>
       </c>
     </row>
     <row r="6">
@@ -567,10 +567,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>944.3</v>
+        <v>848.37</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4447</v>
+        <v>0.4185</v>
       </c>
     </row>
     <row r="8">
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1892.04</v>
+        <v>1892.02</v>
       </c>
       <c r="E8" t="n">
         <v>0.5372</v>
@@ -618,7 +618,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>199570.01</v>
+        <v>199570.03</v>
       </c>
       <c r="E10" t="n">
         <v>0.6788</v>
@@ -635,10 +635,10 @@
         <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>3421.85</v>
+        <v>2892.23</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6061</v>
+        <v>0.5653</v>
       </c>
     </row>
     <row r="12">
@@ -652,10 +652,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>864.55</v>
+        <v>851.73</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1798</v>
+        <v>0.1776</v>
       </c>
     </row>
     <row r="13">
@@ -669,10 +669,10 @@
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>60900.69</v>
+        <v>99140.51</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1161</v>
+        <v>0.1762</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>35604.58</v>
+        <v>35604.59</v>
       </c>
       <c r="E14" t="n">
         <v>0.3</v>
@@ -703,10 +703,10 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>2461.21</v>
+        <v>2185.99</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2077</v>
+        <v>0.1889</v>
       </c>
     </row>
     <row r="16">
@@ -737,10 +737,10 @@
         <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>-13.77</v>
+        <v>63.17</v>
       </c>
       <c r="E17" t="n">
-        <v>7.7792</v>
+        <v>0.8404</v>
       </c>
     </row>
     <row r="18">
@@ -771,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>86812.98</v>
+        <v>75331.33</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7644</v>
+        <v>0.7379</v>
       </c>
     </row>
     <row r="20">
@@ -805,10 +805,10 @@
         <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>10043.78</v>
+        <v>150549.7</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9627</v>
+        <v>0.9974</v>
       </c>
     </row>
     <row r="22">
@@ -822,7 +822,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>54046.01</v>
+        <v>54045.99</v>
       </c>
       <c r="E22" t="n">
         <v>0.9227</v>
@@ -839,10 +839,10 @@
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>132660.36</v>
+        <v>126506.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4221</v>
+        <v>0.4105</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>81440.83</v>
+        <v>50848.87</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2227</v>
+        <v>0.1518</v>
       </c>
     </row>
     <row r="25">
@@ -873,10 +873,10 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>29.12</v>
+        <v>75.82</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0854</v>
+        <v>0.1955</v>
       </c>
     </row>
     <row r="26">
@@ -890,10 +890,10 @@
         <v>34</v>
       </c>
       <c r="D26" t="n">
-        <v>76806.51</v>
+        <v>97619.05</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5091</v>
+        <v>0.5686</v>
       </c>
     </row>
     <row r="27">
@@ -924,10 +924,10 @@
         <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>-46056.85</v>
+        <v>-46078.48</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.3377</v>
+        <v>-0.3379</v>
       </c>
     </row>
     <row r="29">
@@ -941,10 +941,10 @@
         <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>46019.41</v>
+        <v>98195.52</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9758</v>
+        <v>0.9885</v>
       </c>
     </row>
     <row r="30">
@@ -975,10 +975,10 @@
         <v>34</v>
       </c>
       <c r="D31" t="n">
-        <v>2370.7</v>
+        <v>2573.4</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2098</v>
+        <v>0.2237</v>
       </c>
     </row>
     <row r="32">
@@ -992,7 +992,7 @@
         <v>34</v>
       </c>
       <c r="D32" t="n">
-        <v>6529.14</v>
+        <v>6529.11</v>
       </c>
       <c r="E32" t="n">
         <v>0.2567</v>
@@ -1026,7 +1026,7 @@
         <v>34</v>
       </c>
       <c r="D34" t="n">
-        <v>2392832</v>
+        <v>2392832.09</v>
       </c>
       <c r="E34" t="n">
         <v>0.466</v>
@@ -1043,10 +1043,10 @@
         <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>5504.23</v>
+        <v>4179.06</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2117</v>
+        <v>0.1693</v>
       </c>
     </row>
     <row r="36">
@@ -1060,10 +1060,10 @@
         <v>34</v>
       </c>
       <c r="D36" t="n">
-        <v>7259.09</v>
+        <v>7202.1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.179</v>
+        <v>0.1778</v>
       </c>
     </row>
     <row r="37">
@@ -1077,10 +1077,10 @@
         <v>34</v>
       </c>
       <c r="D37" t="n">
-        <v>74465.94</v>
+        <v>196679.16</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0228</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="38">
@@ -1094,7 +1094,7 @@
         <v>34</v>
       </c>
       <c r="D38" t="n">
-        <v>88700.97</v>
+        <v>88701</v>
       </c>
       <c r="E38" t="n">
         <v>0.1248</v>
@@ -1111,10 +1111,10 @@
         <v>34</v>
       </c>
       <c r="D39" t="n">
-        <v>6829.58</v>
+        <v>7352.17</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0941</v>
+        <v>0.1005</v>
       </c>
     </row>
     <row r="40">
@@ -1145,10 +1145,10 @@
         <v>34</v>
       </c>
       <c r="D41" t="n">
-        <v>1583.83</v>
+        <v>1798.99</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6819</v>
+        <v>0.7088</v>
       </c>
     </row>
     <row r="42">
@@ -1179,10 +1179,10 @@
         <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>536790.2</v>
+        <v>468623.64</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6328</v>
+        <v>0.6007</v>
       </c>
     </row>
     <row r="44">
@@ -1213,10 +1213,10 @@
         <v>34</v>
       </c>
       <c r="D45" t="n">
-        <v>117784.33</v>
+        <v>601455.77</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9708</v>
+        <v>0.9941</v>
       </c>
     </row>
     <row r="46">
@@ -1230,7 +1230,7 @@
         <v>34</v>
       </c>
       <c r="D46" t="n">
-        <v>231419.32</v>
+        <v>231419.25</v>
       </c>
       <c r="E46" t="n">
         <v>0.8007</v>
@@ -1247,10 +1247,10 @@
         <v>34</v>
       </c>
       <c r="D47" t="n">
-        <v>426045.56</v>
+        <v>408940.28</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2342</v>
+        <v>0.2269</v>
       </c>
     </row>
     <row r="48">
@@ -1264,10 +1264,10 @@
         <v>34</v>
       </c>
       <c r="D48" t="n">
-        <v>342407.55</v>
+        <v>286546.56</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1378</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="49">
@@ -1281,10 +1281,10 @@
         <v>34</v>
       </c>
       <c r="D49" t="n">
-        <v>-539.6</v>
+        <v>-771.97</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1771</v>
+        <v>-0.2742</v>
       </c>
     </row>
     <row r="50">
@@ -1298,10 +1298,10 @@
         <v>35</v>
       </c>
       <c r="D50" t="n">
-        <v>-128163.88</v>
+        <v>-137431.17</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.981</v>
+        <v>-2.4794</v>
       </c>
     </row>
     <row r="51">
@@ -1332,10 +1332,10 @@
         <v>35</v>
       </c>
       <c r="D52" t="n">
-        <v>-18674.13</v>
+        <v>-18691.91</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.4377</v>
+        <v>-0.4383</v>
       </c>
     </row>
     <row r="53">
@@ -1349,10 +1349,10 @@
         <v>35</v>
       </c>
       <c r="D53" t="n">
-        <v>-2894.9</v>
+        <v>-583.26</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1732</v>
+        <v>-0.0307</v>
       </c>
     </row>
     <row r="54">
@@ -1383,10 +1383,10 @@
         <v>35</v>
       </c>
       <c r="D55" t="n">
-        <v>500.08</v>
+        <v>420.38</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1418</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="56">
@@ -1434,7 +1434,7 @@
         <v>35</v>
       </c>
       <c r="D58" t="n">
-        <v>-62580.29</v>
+        <v>-62580.22</v>
       </c>
       <c r="E58" t="n">
         <v>-0.039</v>
@@ -1451,10 +1451,10 @@
         <v>35</v>
       </c>
       <c r="D59" t="n">
-        <v>3690.87</v>
+        <v>1864.53</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4382</v>
+        <v>0.2827</v>
       </c>
     </row>
     <row r="60">
@@ -1468,10 +1468,10 @@
         <v>35</v>
       </c>
       <c r="D60" t="n">
-        <v>1019.34</v>
+        <v>995.9</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0983</v>
+        <v>0.0962</v>
       </c>
     </row>
     <row r="61">
@@ -1485,10 +1485,10 @@
         <v>35</v>
       </c>
       <c r="D61" t="n">
-        <v>-163683.06</v>
+        <v>-79074.05</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.1725</v>
+        <v>-0.0765</v>
       </c>
     </row>
     <row r="62">
@@ -1502,7 +1502,7 @@
         <v>35</v>
       </c>
       <c r="D62" t="n">
-        <v>34261.6</v>
+        <v>34261.62</v>
       </c>
       <c r="E62" t="n">
         <v>0.1558</v>
@@ -1519,10 +1519,10 @@
         <v>35</v>
       </c>
       <c r="D63" t="n">
-        <v>-3930.82</v>
+        <v>-3260.3</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1948</v>
+        <v>-0.1564</v>
       </c>
     </row>
     <row r="64">
@@ -1553,10 +1553,10 @@
         <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>756.31</v>
+        <v>783.09</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7691</v>
+        <v>0.7753</v>
       </c>
     </row>
     <row r="66">
@@ -1587,10 +1587,10 @@
         <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>190420.34</v>
+        <v>156369.65</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7101</v>
+        <v>0.6679</v>
       </c>
     </row>
     <row r="68">
@@ -1621,10 +1621,10 @@
         <v>35</v>
       </c>
       <c r="D69" t="n">
-        <v>40418.78</v>
+        <v>2062573.05</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9805</v>
+        <v>0.9996</v>
       </c>
     </row>
     <row r="70">
@@ -1638,7 +1638,7 @@
         <v>35</v>
       </c>
       <c r="D70" t="n">
-        <v>91285.27</v>
+        <v>91285.23</v>
       </c>
       <c r="E70" t="n">
         <v>0.7941</v>
@@ -1655,10 +1655,10 @@
         <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>128467.41</v>
+        <v>114929.63</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2061</v>
+        <v>0.1885</v>
       </c>
     </row>
     <row r="72">
@@ -1672,10 +1672,10 @@
         <v>35</v>
       </c>
       <c r="D72" t="n">
-        <v>105899.26</v>
+        <v>53069.01</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1563</v>
+        <v>0.085</v>
       </c>
     </row>
     <row r="73">
@@ -1689,10 +1689,10 @@
         <v>35</v>
       </c>
       <c r="D73" t="n">
-        <v>-537.74</v>
+        <v>-732.76</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.5469</v>
+        <v>-0.9296</v>
       </c>
     </row>
     <row r="74">
@@ -1706,10 +1706,10 @@
         <v>36</v>
       </c>
       <c r="D74" t="n">
-        <v>2269.41</v>
+        <v>768.89</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2805</v>
+        <v>0.1167</v>
       </c>
     </row>
     <row r="75">
@@ -1740,10 +1740,10 @@
         <v>36</v>
       </c>
       <c r="D76" t="n">
-        <v>2684.55</v>
+        <v>2690.29</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2805</v>
+        <v>0.2809</v>
       </c>
     </row>
     <row r="77">
@@ -1757,10 +1757,10 @@
         <v>36</v>
       </c>
       <c r="D77" t="n">
-        <v>2028.01</v>
+        <v>3237.08</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9512</v>
+        <v>0.9689</v>
       </c>
     </row>
     <row r="78">
@@ -1791,10 +1791,10 @@
         <v>36</v>
       </c>
       <c r="D79" t="n">
-        <v>466.49</v>
+        <v>437.21</v>
       </c>
       <c r="E79" t="n">
-        <v>0.427</v>
+        <v>0.4112</v>
       </c>
     </row>
     <row r="80">
@@ -1808,7 +1808,7 @@
         <v>36</v>
       </c>
       <c r="D80" t="n">
-        <v>716.44</v>
+        <v>716.43</v>
       </c>
       <c r="E80" t="n">
         <v>0.3668</v>
@@ -1842,7 +1842,7 @@
         <v>36</v>
       </c>
       <c r="D82" t="n">
-        <v>61406.79</v>
+        <v>61406.8</v>
       </c>
       <c r="E82" t="n">
         <v>0.6404</v>
@@ -1859,10 +1859,10 @@
         <v>36</v>
       </c>
       <c r="D83" t="n">
-        <v>668.11</v>
+        <v>1212.06</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3094</v>
+        <v>0.4484</v>
       </c>
     </row>
     <row r="84">
@@ -1876,10 +1876,10 @@
         <v>36</v>
       </c>
       <c r="D84" t="n">
-        <v>-377.36</v>
+        <v>-381.51</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1021</v>
+        <v>-0.1033</v>
       </c>
     </row>
     <row r="85">
@@ -1893,10 +1893,10 @@
         <v>36</v>
       </c>
       <c r="D85" t="n">
-        <v>86251.5</v>
+        <v>87866.73</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2721</v>
+        <v>0.2758</v>
       </c>
     </row>
     <row r="86">
@@ -1910,7 +1910,7 @@
         <v>36</v>
       </c>
       <c r="D86" t="n">
-        <v>23213.76</v>
+        <v>23213.77</v>
       </c>
       <c r="E86" t="n">
         <v>0.3502</v>
@@ -1927,10 +1927,10 @@
         <v>36</v>
       </c>
       <c r="D87" t="n">
-        <v>3599.28</v>
+        <v>3629.87</v>
       </c>
       <c r="E87" t="n">
-        <v>0.455</v>
+        <v>0.4571</v>
       </c>
     </row>
     <row r="88">
@@ -1961,10 +1961,10 @@
         <v>36</v>
       </c>
       <c r="D89" t="n">
-        <v>-37.12</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1.1927</v>
+        <v>-6</v>
+      </c>
+      <c r="E89" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="90">
@@ -1995,10 +1995,10 @@
         <v>36</v>
       </c>
       <c r="D91" t="n">
-        <v>29160.37</v>
+        <v>23650.09</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4831</v>
+        <v>0.4311</v>
       </c>
     </row>
     <row r="92">
@@ -2029,10 +2029,10 @@
         <v>36</v>
       </c>
       <c r="D93" t="n">
-        <v>5805.12</v>
+        <v>5752.78</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7733</v>
+        <v>0.7717</v>
       </c>
     </row>
     <row r="94">
@@ -2063,10 +2063,10 @@
         <v>36</v>
       </c>
       <c r="D95" t="n">
-        <v>42987.39</v>
+        <v>42671.66</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2959</v>
+        <v>0.2944</v>
       </c>
     </row>
     <row r="96">
@@ -2080,10 +2080,10 @@
         <v>36</v>
       </c>
       <c r="D96" t="n">
-        <v>57359.39</v>
+        <v>59979.74</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2357</v>
+        <v>0.2438</v>
       </c>
     </row>
     <row r="97">
@@ -2097,10 +2097,10 @@
         <v>36</v>
       </c>
       <c r="D97" t="n">
-        <v>10.08</v>
+        <v>45.62</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0725</v>
+        <v>0.2613</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/Table S1.xlsx
+++ b/outcome/appendix/Table S1.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">Intestinal infectious diseases</t>
   </si>
   <si>
-    <t xml:space="preserve">Epidemic Periods</t>
+    <t xml:space="preserve">Epidemic period</t>
   </si>
   <si>
     <t xml:space="preserve">AIDS</t>
@@ -116,13 +116,13 @@
     <t xml:space="preserve">Typhus</t>
   </si>
   <si>
-    <t xml:space="preserve">PHSMs Periods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post-epidemic Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-epidemic Periods</t>
+    <t xml:space="preserve">PHSMs period I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHSMs period II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post-epidemic period</t>
   </si>
 </sst>
 </file>
@@ -516,10 +516,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>-2467.42</v>
+        <v>-2494.76</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.15</v>
+        <v>-0.152</v>
       </c>
     </row>
     <row r="5">
@@ -533,10 +533,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>15132.85</v>
+        <v>18486.44</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9867</v>
+        <v>0.9891</v>
       </c>
     </row>
     <row r="6">
@@ -567,10 +567,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>848.37</v>
+        <v>296.89</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4185</v>
+        <v>0.2012</v>
       </c>
     </row>
     <row r="8">
@@ -652,10 +652,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>851.73</v>
+        <v>2105.78</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1776</v>
+        <v>0.3481</v>
       </c>
     </row>
     <row r="13">
@@ -703,10 +703,10 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>2185.99</v>
+        <v>2458.55</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1889</v>
+        <v>0.2076</v>
       </c>
     </row>
     <row r="16">
@@ -737,10 +737,10 @@
         <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>63.17</v>
+        <v>60.41</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8404</v>
+        <v>0.8343</v>
       </c>
     </row>
     <row r="18">
@@ -805,10 +805,10 @@
         <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>150549.7</v>
+        <v>4405.32</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9974</v>
+        <v>0.9189</v>
       </c>
     </row>
     <row r="22">
@@ -873,10 +873,10 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>75.82</v>
+        <v>34.84</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1955</v>
+        <v>0.1004</v>
       </c>
     </row>
     <row r="26">
@@ -890,10 +890,10 @@
         <v>34</v>
       </c>
       <c r="D26" t="n">
-        <v>97619.05</v>
+        <v>768.89</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5686</v>
+        <v>0.1167</v>
       </c>
     </row>
     <row r="27">
@@ -907,10 +907,10 @@
         <v>34</v>
       </c>
       <c r="D27" t="n">
-        <v>56910.51</v>
+        <v>4220</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2665</v>
+        <v>0.3032</v>
       </c>
     </row>
     <row r="28">
@@ -924,10 +924,10 @@
         <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>-46078.48</v>
+        <v>2681.94</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.3379</v>
+        <v>0.2803</v>
       </c>
     </row>
     <row r="29">
@@ -941,10 +941,10 @@
         <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>98195.52</v>
+        <v>2423.97</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9885</v>
+        <v>0.9589</v>
       </c>
     </row>
     <row r="30">
@@ -958,10 +958,10 @@
         <v>34</v>
       </c>
       <c r="D30" t="n">
-        <v>44565.94</v>
+        <v>2237.21</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2502</v>
+        <v>0.2162</v>
       </c>
     </row>
     <row r="31">
@@ -975,10 +975,10 @@
         <v>34</v>
       </c>
       <c r="D31" t="n">
-        <v>2573.4</v>
+        <v>458.84</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2237</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="32">
@@ -992,10 +992,10 @@
         <v>34</v>
       </c>
       <c r="D32" t="n">
-        <v>6529.11</v>
+        <v>716.43</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2567</v>
+        <v>0.3668</v>
       </c>
     </row>
     <row r="33">
@@ -1009,10 +1009,10 @@
         <v>34</v>
       </c>
       <c r="D33" t="n">
-        <v>4893.26</v>
+        <v>9602.91</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0158</v>
+        <v>0.3687</v>
       </c>
     </row>
     <row r="34">
@@ -1026,10 +1026,10 @@
         <v>34</v>
       </c>
       <c r="D34" t="n">
-        <v>2392832.09</v>
+        <v>61406.8</v>
       </c>
       <c r="E34" t="n">
-        <v>0.466</v>
+        <v>0.6404</v>
       </c>
     </row>
     <row r="35">
@@ -1043,10 +1043,10 @@
         <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>4179.06</v>
+        <v>1212.06</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1693</v>
+        <v>0.4484</v>
       </c>
     </row>
     <row r="36">
@@ -1060,10 +1060,10 @@
         <v>34</v>
       </c>
       <c r="D36" t="n">
-        <v>7202.1</v>
+        <v>-506.77</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1778</v>
+        <v>-0.142</v>
       </c>
     </row>
     <row r="37">
@@ -1077,10 +1077,10 @@
         <v>34</v>
       </c>
       <c r="D37" t="n">
-        <v>196679.16</v>
+        <v>87866.73</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0581</v>
+        <v>0.2758</v>
       </c>
     </row>
     <row r="38">
@@ -1094,10 +1094,10 @@
         <v>34</v>
       </c>
       <c r="D38" t="n">
-        <v>88701</v>
+        <v>23213.77</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1248</v>
+        <v>0.3502</v>
       </c>
     </row>
     <row r="39">
@@ -1111,10 +1111,10 @@
         <v>34</v>
       </c>
       <c r="D39" t="n">
-        <v>7352.17</v>
+        <v>3579.66</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1005</v>
+        <v>0.4536</v>
       </c>
     </row>
     <row r="40">
@@ -1128,10 +1128,10 @@
         <v>34</v>
       </c>
       <c r="D40" t="n">
-        <v>675490.83</v>
+        <v>158789.96</v>
       </c>
       <c r="E40" t="n">
-        <v>0.18</v>
+        <v>0.4243</v>
       </c>
     </row>
     <row r="41">
@@ -1145,10 +1145,10 @@
         <v>34</v>
       </c>
       <c r="D41" t="n">
-        <v>1798.99</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.7088</v>
+        <v>-6</v>
+      </c>
+      <c r="E41" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="42">
@@ -1162,10 +1162,10 @@
         <v>34</v>
       </c>
       <c r="D42" t="n">
-        <v>4456.78</v>
+        <v>154.24</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6765</v>
+        <v>0.2142</v>
       </c>
     </row>
     <row r="43">
@@ -1179,10 +1179,10 @@
         <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>468623.64</v>
+        <v>23650.09</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6007</v>
+        <v>0.4311</v>
       </c>
     </row>
     <row r="44">
@@ -1196,10 +1196,10 @@
         <v>34</v>
       </c>
       <c r="D44" t="n">
-        <v>78411.53</v>
+        <v>2744.79</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6216</v>
+        <v>0.4993</v>
       </c>
     </row>
     <row r="45">
@@ -1213,10 +1213,10 @@
         <v>34</v>
       </c>
       <c r="D45" t="n">
-        <v>601455.77</v>
+        <v>390.03</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9941</v>
+        <v>0.1864</v>
       </c>
     </row>
     <row r="46">
@@ -1230,10 +1230,10 @@
         <v>34</v>
       </c>
       <c r="D46" t="n">
-        <v>231419.25</v>
+        <v>11460.96</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8007</v>
+        <v>0.6084</v>
       </c>
     </row>
     <row r="47">
@@ -1247,10 +1247,10 @@
         <v>34</v>
       </c>
       <c r="D47" t="n">
-        <v>408940.28</v>
+        <v>42671.66</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2269</v>
+        <v>0.2944</v>
       </c>
     </row>
     <row r="48">
@@ -1264,10 +1264,10 @@
         <v>34</v>
       </c>
       <c r="D48" t="n">
-        <v>286546.56</v>
+        <v>59979.74</v>
       </c>
       <c r="E48" t="n">
-        <v>0.118</v>
+        <v>0.2438</v>
       </c>
     </row>
     <row r="49">
@@ -1281,10 +1281,10 @@
         <v>34</v>
       </c>
       <c r="D49" t="n">
-        <v>-771.97</v>
+        <v>19.49</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.2742</v>
+        <v>0.1313</v>
       </c>
     </row>
     <row r="50">
@@ -1298,10 +1298,10 @@
         <v>35</v>
       </c>
       <c r="D50" t="n">
-        <v>-137431.17</v>
+        <v>97619.05</v>
       </c>
       <c r="E50" t="n">
-        <v>-2.4794</v>
+        <v>0.5686</v>
       </c>
     </row>
     <row r="51">
@@ -1315,10 +1315,10 @@
         <v>35</v>
       </c>
       <c r="D51" t="n">
-        <v>31672.25</v>
+        <v>56910.51</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4005</v>
+        <v>0.2665</v>
       </c>
     </row>
     <row r="52">
@@ -1332,10 +1332,10 @@
         <v>35</v>
       </c>
       <c r="D52" t="n">
-        <v>-18691.91</v>
+        <v>-45991.49</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.4383</v>
+        <v>-0.337</v>
       </c>
     </row>
     <row r="53">
@@ -1349,10 +1349,10 @@
         <v>35</v>
       </c>
       <c r="D53" t="n">
-        <v>-583.26</v>
+        <v>118184.6</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.0307</v>
+        <v>0.9904</v>
       </c>
     </row>
     <row r="54">
@@ -1366,10 +1366,10 @@
         <v>35</v>
       </c>
       <c r="D54" t="n">
-        <v>15505.18</v>
+        <v>44565.94</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3361</v>
+        <v>0.2502</v>
       </c>
     </row>
     <row r="55">
@@ -1383,10 +1383,10 @@
         <v>35</v>
       </c>
       <c r="D55" t="n">
-        <v>420.38</v>
+        <v>377.34</v>
       </c>
       <c r="E55" t="n">
-        <v>0.122</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="56">
@@ -1400,10 +1400,10 @@
         <v>35</v>
       </c>
       <c r="D56" t="n">
-        <v>2212.57</v>
+        <v>6529.11</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3168</v>
+        <v>0.2567</v>
       </c>
     </row>
     <row r="57">
@@ -1417,10 +1417,10 @@
         <v>35</v>
       </c>
       <c r="D57" t="n">
-        <v>5151.91</v>
+        <v>4893.26</v>
       </c>
       <c r="E57" t="n">
-        <v>0.056</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="58">
@@ -1434,10 +1434,10 @@
         <v>35</v>
       </c>
       <c r="D58" t="n">
-        <v>-62580.22</v>
+        <v>2392832.09</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.039</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="59">
@@ -1451,10 +1451,10 @@
         <v>35</v>
       </c>
       <c r="D59" t="n">
-        <v>1864.53</v>
+        <v>4179.06</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2827</v>
+        <v>0.1693</v>
       </c>
     </row>
     <row r="60">
@@ -1468,10 +1468,10 @@
         <v>35</v>
       </c>
       <c r="D60" t="n">
-        <v>995.9</v>
+        <v>6550.41</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0962</v>
+        <v>0.1644</v>
       </c>
     </row>
     <row r="61">
@@ -1485,10 +1485,10 @@
         <v>35</v>
       </c>
       <c r="D61" t="n">
-        <v>-79074.05</v>
+        <v>196679.16</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.0765</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="62">
@@ -1502,10 +1502,10 @@
         <v>35</v>
       </c>
       <c r="D62" t="n">
-        <v>34261.62</v>
+        <v>88701</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1558</v>
+        <v>0.1248</v>
       </c>
     </row>
     <row r="63">
@@ -1519,10 +1519,10 @@
         <v>35</v>
       </c>
       <c r="D63" t="n">
-        <v>-3260.3</v>
+        <v>7151.94</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1564</v>
+        <v>0.0981</v>
       </c>
     </row>
     <row r="64">
@@ -1536,10 +1536,10 @@
         <v>35</v>
       </c>
       <c r="D64" t="n">
-        <v>260630.76</v>
+        <v>675490.83</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2233</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="65">
@@ -1553,10 +1553,10 @@
         <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>783.09</v>
+        <v>1755</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7753</v>
+        <v>0.7037</v>
       </c>
     </row>
     <row r="66">
@@ -1570,10 +1570,10 @@
         <v>35</v>
       </c>
       <c r="D66" t="n">
-        <v>-205.78</v>
+        <v>4456.78</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.1146</v>
+        <v>0.6765</v>
       </c>
     </row>
     <row r="67">
@@ -1587,10 +1587,10 @@
         <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>156369.65</v>
+        <v>468623.64</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6679</v>
+        <v>0.6007</v>
       </c>
     </row>
     <row r="68">
@@ -1604,10 +1604,10 @@
         <v>35</v>
       </c>
       <c r="D68" t="n">
-        <v>32052.14</v>
+        <v>78411.53</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4713</v>
+        <v>0.6216</v>
       </c>
     </row>
     <row r="69">
@@ -1621,10 +1621,10 @@
         <v>35</v>
       </c>
       <c r="D69" t="n">
-        <v>2062573.05</v>
+        <v>33815.7</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9996</v>
+        <v>0.9051</v>
       </c>
     </row>
     <row r="70">
@@ -1638,10 +1638,10 @@
         <v>35</v>
       </c>
       <c r="D70" t="n">
-        <v>91285.23</v>
+        <v>231419.25</v>
       </c>
       <c r="E70" t="n">
-        <v>0.7941</v>
+        <v>0.8007</v>
       </c>
     </row>
     <row r="71">
@@ -1655,10 +1655,10 @@
         <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>114929.63</v>
+        <v>408940.28</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1885</v>
+        <v>0.2269</v>
       </c>
     </row>
     <row r="72">
@@ -1672,10 +1672,10 @@
         <v>35</v>
       </c>
       <c r="D72" t="n">
-        <v>53069.01</v>
+        <v>286546.56</v>
       </c>
       <c r="E72" t="n">
-        <v>0.085</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="73">
@@ -1689,10 +1689,10 @@
         <v>35</v>
       </c>
       <c r="D73" t="n">
-        <v>-732.76</v>
+        <v>-500.11</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9296</v>
+        <v>-0.162</v>
       </c>
     </row>
     <row r="74">
@@ -1706,10 +1706,10 @@
         <v>36</v>
       </c>
       <c r="D74" t="n">
-        <v>768.89</v>
+        <v>-137431.17</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1167</v>
+        <v>-2.4794</v>
       </c>
     </row>
     <row r="75">
@@ -1723,10 +1723,10 @@
         <v>36</v>
       </c>
       <c r="D75" t="n">
-        <v>4220</v>
+        <v>31672.25</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3032</v>
+        <v>0.4005</v>
       </c>
     </row>
     <row r="76">
@@ -1740,10 +1740,10 @@
         <v>36</v>
       </c>
       <c r="D76" t="n">
-        <v>2690.29</v>
+        <v>-18638.72</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2809</v>
+        <v>-0.4365</v>
       </c>
     </row>
     <row r="77">
@@ -1757,10 +1757,10 @@
         <v>36</v>
       </c>
       <c r="D77" t="n">
-        <v>3237.08</v>
+        <v>12077.63</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9689</v>
+        <v>0.3812</v>
       </c>
     </row>
     <row r="78">
@@ -1774,10 +1774,10 @@
         <v>36</v>
       </c>
       <c r="D78" t="n">
-        <v>2237.21</v>
+        <v>15505.18</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2162</v>
+        <v>0.3361</v>
       </c>
     </row>
     <row r="79">
@@ -1791,10 +1791,10 @@
         <v>36</v>
       </c>
       <c r="D79" t="n">
-        <v>437.21</v>
+        <v>-891.66</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4112</v>
+        <v>-0.4178</v>
       </c>
     </row>
     <row r="80">
@@ -1808,10 +1808,10 @@
         <v>36</v>
       </c>
       <c r="D80" t="n">
-        <v>716.43</v>
+        <v>2212.57</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3668</v>
+        <v>0.3168</v>
       </c>
     </row>
     <row r="81">
@@ -1825,10 +1825,10 @@
         <v>36</v>
       </c>
       <c r="D81" t="n">
-        <v>9602.91</v>
+        <v>5151.91</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3687</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="82">
@@ -1842,10 +1842,10 @@
         <v>36</v>
       </c>
       <c r="D82" t="n">
-        <v>61406.8</v>
+        <v>-62580.22</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6404</v>
+        <v>-0.039</v>
       </c>
     </row>
     <row r="83">
@@ -1859,10 +1859,10 @@
         <v>36</v>
       </c>
       <c r="D83" t="n">
-        <v>1212.06</v>
+        <v>1864.53</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4484</v>
+        <v>0.2827</v>
       </c>
     </row>
     <row r="84">
@@ -1876,10 +1876,10 @@
         <v>36</v>
       </c>
       <c r="D84" t="n">
-        <v>-381.51</v>
+        <v>2293.22</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1033</v>
+        <v>0.1969</v>
       </c>
     </row>
     <row r="85">
@@ -1893,10 +1893,10 @@
         <v>36</v>
       </c>
       <c r="D85" t="n">
-        <v>87866.73</v>
+        <v>-79074.05</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2758</v>
+        <v>-0.0765</v>
       </c>
     </row>
     <row r="86">
@@ -1910,10 +1910,10 @@
         <v>36</v>
       </c>
       <c r="D86" t="n">
-        <v>23213.77</v>
+        <v>34261.62</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3502</v>
+        <v>0.1558</v>
       </c>
     </row>
     <row r="87">
@@ -1927,10 +1927,10 @@
         <v>36</v>
       </c>
       <c r="D87" t="n">
-        <v>3629.87</v>
+        <v>-3684.76</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4571</v>
+        <v>-0.1804</v>
       </c>
     </row>
     <row r="88">
@@ -1944,10 +1944,10 @@
         <v>36</v>
       </c>
       <c r="D88" t="n">
-        <v>158789.96</v>
+        <v>260630.76</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4243</v>
+        <v>0.2233</v>
       </c>
     </row>
     <row r="89">
@@ -1961,10 +1961,10 @@
         <v>36</v>
       </c>
       <c r="D89" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E89" t="e">
-        <v>#NUM!</v>
+        <v>748.17</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7672</v>
       </c>
     </row>
     <row r="90">
@@ -1978,10 +1978,10 @@
         <v>36</v>
       </c>
       <c r="D90" t="n">
-        <v>154.24</v>
+        <v>-205.78</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2142</v>
+        <v>-0.1146</v>
       </c>
     </row>
     <row r="91">
@@ -1995,10 +1995,10 @@
         <v>36</v>
       </c>
       <c r="D91" t="n">
-        <v>23650.09</v>
+        <v>156369.65</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4311</v>
+        <v>0.6679</v>
       </c>
     </row>
     <row r="92">
@@ -2012,10 +2012,10 @@
         <v>36</v>
       </c>
       <c r="D92" t="n">
-        <v>2744.79</v>
+        <v>32052.14</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4993</v>
+        <v>0.4713</v>
       </c>
     </row>
     <row r="93">
@@ -2029,10 +2029,10 @@
         <v>36</v>
       </c>
       <c r="D93" t="n">
-        <v>5752.78</v>
+        <v>12236.76</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7717</v>
+        <v>0.9383</v>
       </c>
     </row>
     <row r="94">
@@ -2046,10 +2046,10 @@
         <v>36</v>
       </c>
       <c r="D94" t="n">
-        <v>11460.96</v>
+        <v>91285.23</v>
       </c>
       <c r="E94" t="n">
-        <v>0.6084</v>
+        <v>0.7941</v>
       </c>
     </row>
     <row r="95">
@@ -2063,10 +2063,10 @@
         <v>36</v>
       </c>
       <c r="D95" t="n">
-        <v>42671.66</v>
+        <v>114929.63</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2944</v>
+        <v>0.1885</v>
       </c>
     </row>
     <row r="96">
@@ -2080,10 +2080,10 @@
         <v>36</v>
       </c>
       <c r="D96" t="n">
-        <v>59979.74</v>
+        <v>53069.01</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2438</v>
+        <v>0.085</v>
       </c>
     </row>
     <row r="97">
@@ -2097,10 +2097,10 @@
         <v>36</v>
       </c>
       <c r="D97" t="n">
-        <v>45.62</v>
+        <v>-524.91</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2613</v>
+        <v>-0.527</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/Table S1.xlsx
+++ b/outcome/appendix/Table S1.xlsx
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>4890.44</v>
+        <v>6747.72</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3617</v>
+        <v>0.4388</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>-2494.76</v>
+        <v>-1999.71</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.152</v>
+        <v>-0.1182</v>
       </c>
     </row>
     <row r="5">
@@ -533,10 +533,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>18486.44</v>
+        <v>13248.63</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9891</v>
+        <v>0.9848</v>
       </c>
     </row>
     <row r="6">
@@ -703,10 +703,10 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>2458.55</v>
+        <v>2353.06</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2076</v>
+        <v>0.2004</v>
       </c>
     </row>
     <row r="16">
@@ -737,10 +737,10 @@
         <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>60.41</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.8343</v>
+        <v>-12</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="18">
@@ -754,10 +754,10 @@
         <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>495.56</v>
+        <v>499.88</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4708</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="19">
@@ -771,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>75331.33</v>
+        <v>87652.18</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7379</v>
+        <v>0.7661</v>
       </c>
     </row>
     <row r="20">
@@ -839,10 +839,10 @@
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>126506.5</v>
+        <v>114951.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4105</v>
+        <v>0.3876</v>
       </c>
     </row>
     <row r="24">
@@ -890,10 +890,10 @@
         <v>34</v>
       </c>
       <c r="D26" t="n">
-        <v>768.89</v>
+        <v>1452.27</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1167</v>
+        <v>0.1996</v>
       </c>
     </row>
     <row r="27">
@@ -924,10 +924,10 @@
         <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>2681.94</v>
+        <v>2842.9</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2803</v>
+        <v>0.2922</v>
       </c>
     </row>
     <row r="29">
@@ -941,10 +941,10 @@
         <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>2423.97</v>
+        <v>3938.46</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9589</v>
+        <v>0.9743</v>
       </c>
     </row>
     <row r="30">
@@ -1111,10 +1111,10 @@
         <v>34</v>
       </c>
       <c r="D39" t="n">
-        <v>3579.66</v>
+        <v>3612.84</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4536</v>
+        <v>0.4559</v>
       </c>
     </row>
     <row r="40">
@@ -1162,10 +1162,10 @@
         <v>34</v>
       </c>
       <c r="D42" t="n">
-        <v>154.24</v>
+        <v>152.88</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2142</v>
+        <v>0.2127</v>
       </c>
     </row>
     <row r="43">
@@ -1179,10 +1179,10 @@
         <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>23650.09</v>
+        <v>25461.88</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4311</v>
+        <v>0.4493</v>
       </c>
     </row>
     <row r="44">
@@ -1247,10 +1247,10 @@
         <v>34</v>
       </c>
       <c r="D47" t="n">
-        <v>42671.66</v>
+        <v>40289.54</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2944</v>
+        <v>0.2826</v>
       </c>
     </row>
     <row r="48">
@@ -1298,10 +1298,10 @@
         <v>35</v>
       </c>
       <c r="D50" t="n">
-        <v>97619.05</v>
+        <v>62243.73</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5686</v>
+        <v>0.4566</v>
       </c>
     </row>
     <row r="51">
@@ -1332,10 +1332,10 @@
         <v>35</v>
       </c>
       <c r="D52" t="n">
-        <v>-45991.49</v>
+        <v>-31857.58</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.337</v>
+        <v>-0.2115</v>
       </c>
     </row>
     <row r="53">
@@ -1349,10 +1349,10 @@
         <v>35</v>
       </c>
       <c r="D53" t="n">
-        <v>118184.6</v>
+        <v>89040.69</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9904</v>
+        <v>0.9873</v>
       </c>
     </row>
     <row r="54">
@@ -1519,10 +1519,10 @@
         <v>35</v>
       </c>
       <c r="D63" t="n">
-        <v>7151.94</v>
+        <v>7648.87</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0981</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="64">
@@ -1553,10 +1553,10 @@
         <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>1755</v>
+        <v>2685.71</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7037</v>
+        <v>0.7842</v>
       </c>
     </row>
     <row r="66">
@@ -1570,10 +1570,10 @@
         <v>35</v>
       </c>
       <c r="D66" t="n">
-        <v>4456.78</v>
+        <v>4895.01</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6765</v>
+        <v>0.6967</v>
       </c>
     </row>
     <row r="67">
@@ -1587,10 +1587,10 @@
         <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>468623.64</v>
+        <v>495464.35</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6007</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="68">
@@ -1655,10 +1655,10 @@
         <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>408940.28</v>
+        <v>383159.92</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2269</v>
+        <v>0.2157</v>
       </c>
     </row>
     <row r="72">
@@ -1706,10 +1706,10 @@
         <v>36</v>
       </c>
       <c r="D74" t="n">
-        <v>-137431.17</v>
+        <v>-145494.12</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.4794</v>
+        <v>-3.0716</v>
       </c>
     </row>
     <row r="75">
@@ -1740,10 +1740,10 @@
         <v>36</v>
       </c>
       <c r="D76" t="n">
-        <v>-18638.72</v>
+        <v>-14411.51</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.4365</v>
+        <v>-0.3071</v>
       </c>
     </row>
     <row r="77">
@@ -1757,10 +1757,10 @@
         <v>36</v>
       </c>
       <c r="D77" t="n">
-        <v>12077.63</v>
+        <v>14332.06</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3812</v>
+        <v>0.4223</v>
       </c>
     </row>
     <row r="78">
@@ -1927,10 +1927,10 @@
         <v>36</v>
       </c>
       <c r="D87" t="n">
-        <v>-3684.76</v>
+        <v>-3236</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.1804</v>
+        <v>-0.155</v>
       </c>
     </row>
     <row r="88">
@@ -1961,10 +1961,10 @@
         <v>36</v>
       </c>
       <c r="D89" t="n">
-        <v>748.17</v>
+        <v>739.5</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7672</v>
+        <v>0.7651</v>
       </c>
     </row>
     <row r="90">
@@ -1978,10 +1978,10 @@
         <v>36</v>
       </c>
       <c r="D90" t="n">
-        <v>-205.78</v>
+        <v>-78.75</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.1146</v>
+        <v>-0.0409</v>
       </c>
     </row>
     <row r="91">
@@ -1995,10 +1995,10 @@
         <v>36</v>
       </c>
       <c r="D91" t="n">
-        <v>156369.65</v>
+        <v>171052.1</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6679</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="92">
@@ -2063,10 +2063,10 @@
         <v>36</v>
       </c>
       <c r="D95" t="n">
-        <v>114929.63</v>
+        <v>90698.39</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1885</v>
+        <v>0.1549</v>
       </c>
     </row>
     <row r="96">

--- a/outcome/appendix/Table S1.xlsx
+++ b/outcome/appendix/Table S1.xlsx
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>6747.72</v>
+        <v>6866.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4388</v>
+        <v>0.4431</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>-1999.71</v>
+        <v>-1341.63</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1182</v>
+        <v>-0.0764</v>
       </c>
     </row>
     <row r="5">
@@ -618,10 +618,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>199570.03</v>
+        <v>358232.68</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6788</v>
+        <v>0.7914</v>
       </c>
     </row>
     <row r="11">
@@ -703,10 +703,10 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>2353.06</v>
+        <v>2458.58</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2004</v>
+        <v>0.2076</v>
       </c>
     </row>
     <row r="16">
@@ -754,10 +754,10 @@
         <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>499.88</v>
+        <v>498.69</v>
       </c>
       <c r="E18" t="n">
-        <v>0.473</v>
+        <v>0.4724</v>
       </c>
     </row>
     <row r="19">
@@ -771,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>87652.18</v>
+        <v>88395.32</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7661</v>
+        <v>0.7676</v>
       </c>
     </row>
     <row r="20">
@@ -805,10 +805,10 @@
         <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>4405.32</v>
+        <v>4133.76</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9189</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="22">
@@ -839,7 +839,7 @@
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>114951.5</v>
+        <v>114964.09</v>
       </c>
       <c r="E23" t="n">
         <v>0.3876</v>
@@ -890,10 +890,10 @@
         <v>34</v>
       </c>
       <c r="D26" t="n">
-        <v>1452.27</v>
+        <v>1439.52</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1996</v>
+        <v>0.1982</v>
       </c>
     </row>
     <row r="27">
@@ -924,10 +924,10 @@
         <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>2842.9</v>
+        <v>2814.94</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2922</v>
+        <v>0.2902</v>
       </c>
     </row>
     <row r="29">
@@ -1026,10 +1026,10 @@
         <v>34</v>
       </c>
       <c r="D34" t="n">
-        <v>61406.8</v>
+        <v>82184.26</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6404</v>
+        <v>0.7044</v>
       </c>
     </row>
     <row r="35">
@@ -1111,10 +1111,10 @@
         <v>34</v>
       </c>
       <c r="D39" t="n">
-        <v>3612.84</v>
+        <v>3574.02</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4559</v>
+        <v>0.4532</v>
       </c>
     </row>
     <row r="40">
@@ -1162,10 +1162,10 @@
         <v>34</v>
       </c>
       <c r="D42" t="n">
-        <v>152.88</v>
+        <v>153.07</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2127</v>
+        <v>0.2129</v>
       </c>
     </row>
     <row r="43">
@@ -1179,10 +1179,10 @@
         <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>25461.88</v>
+        <v>25546.6</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4493</v>
+        <v>0.4501</v>
       </c>
     </row>
     <row r="44">
@@ -1213,10 +1213,10 @@
         <v>34</v>
       </c>
       <c r="D45" t="n">
-        <v>390.03</v>
+        <v>1199.44</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1864</v>
+        <v>0.4134</v>
       </c>
     </row>
     <row r="46">
@@ -1247,10 +1247,10 @@
         <v>34</v>
       </c>
       <c r="D47" t="n">
-        <v>40289.54</v>
+        <v>40315.51</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2826</v>
+        <v>0.2827</v>
       </c>
     </row>
     <row r="48">
@@ -1298,10 +1298,10 @@
         <v>35</v>
       </c>
       <c r="D50" t="n">
-        <v>62243.73</v>
+        <v>61981.29</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4566</v>
+        <v>0.4556</v>
       </c>
     </row>
     <row r="51">
@@ -1332,10 +1332,10 @@
         <v>35</v>
       </c>
       <c r="D52" t="n">
-        <v>-31857.58</v>
+        <v>-33178.72</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.2115</v>
+        <v>-0.2223</v>
       </c>
     </row>
     <row r="53">
@@ -1434,10 +1434,10 @@
         <v>35</v>
       </c>
       <c r="D58" t="n">
-        <v>2392832.09</v>
+        <v>2632491.22</v>
       </c>
       <c r="E58" t="n">
-        <v>0.466</v>
+        <v>0.4898</v>
       </c>
     </row>
     <row r="59">
@@ -1519,10 +1519,10 @@
         <v>35</v>
       </c>
       <c r="D63" t="n">
-        <v>7648.87</v>
+        <v>6821.75</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1042</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="64">
@@ -1570,10 +1570,10 @@
         <v>35</v>
       </c>
       <c r="D66" t="n">
-        <v>4895.01</v>
+        <v>4892.43</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6967</v>
+        <v>0.6966</v>
       </c>
     </row>
     <row r="67">
@@ -1587,10 +1587,10 @@
         <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>495464.35</v>
+        <v>497520.5</v>
       </c>
       <c r="E67" t="n">
-        <v>0.614</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="68">
@@ -1621,10 +1621,10 @@
         <v>35</v>
       </c>
       <c r="D69" t="n">
-        <v>33815.7</v>
+        <v>39902.29</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9051</v>
+        <v>0.9184</v>
       </c>
     </row>
     <row r="70">
@@ -1655,10 +1655,10 @@
         <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>383159.92</v>
+        <v>383665.45</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2157</v>
+        <v>0.2159</v>
       </c>
     </row>
     <row r="72">
@@ -1706,10 +1706,10 @@
         <v>36</v>
       </c>
       <c r="D74" t="n">
-        <v>-145494.12</v>
+        <v>-145841.18</v>
       </c>
       <c r="E74" t="n">
-        <v>-3.0716</v>
+        <v>-3.1017</v>
       </c>
     </row>
     <row r="75">
@@ -1740,10 +1740,10 @@
         <v>36</v>
       </c>
       <c r="D76" t="n">
-        <v>-14411.51</v>
+        <v>-14089.92</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.3071</v>
+        <v>-0.2982</v>
       </c>
     </row>
     <row r="77">
@@ -1842,10 +1842,10 @@
         <v>36</v>
       </c>
       <c r="D82" t="n">
-        <v>-62580.22</v>
+        <v>419730.19</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.039</v>
+        <v>0.2012</v>
       </c>
     </row>
     <row r="83">
@@ -1927,10 +1927,10 @@
         <v>36</v>
       </c>
       <c r="D87" t="n">
-        <v>-3236</v>
+        <v>-3831.59</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.155</v>
+        <v>-0.189</v>
       </c>
     </row>
     <row r="88">
@@ -1978,10 +1978,10 @@
         <v>36</v>
       </c>
       <c r="D90" t="n">
-        <v>-78.75</v>
+        <v>-80.78</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.0409</v>
+        <v>-0.042</v>
       </c>
     </row>
     <row r="91">
@@ -1995,10 +1995,10 @@
         <v>36</v>
       </c>
       <c r="D91" t="n">
-        <v>171052.1</v>
+        <v>171695.42</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6875</v>
+        <v>0.6883</v>
       </c>
     </row>
     <row r="92">
@@ -2029,10 +2029,10 @@
         <v>36</v>
       </c>
       <c r="D93" t="n">
-        <v>12236.76</v>
+        <v>12439.34</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9383</v>
+        <v>0.9392</v>
       </c>
     </row>
     <row r="94">
@@ -2063,10 +2063,10 @@
         <v>36</v>
       </c>
       <c r="D95" t="n">
-        <v>90698.39</v>
+        <v>90829.5</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1549</v>
+        <v>0.1551</v>
       </c>
     </row>
     <row r="96">
